--- a/teaching/traditional_assets/database/data/jersey/jersey_heathcare_information_and_technology.xlsx
+++ b/teaching/traditional_assets/database/data/jersey/jersey_heathcare_information_and_technology.xlsx
@@ -590,26 +590,23 @@
           <t>Heathcare Information and Technology</t>
         </is>
       </c>
-      <c r="D2">
-        <v>0.37</v>
-      </c>
       <c r="G2">
-        <v>-2.521212121212121</v>
+        <v>-1.643333333333333</v>
       </c>
       <c r="H2">
-        <v>-2.760606060606061</v>
+        <v>-2.106666666666667</v>
       </c>
       <c r="I2">
-        <v>-1.881818181818182</v>
+        <v>-3.316666666666667</v>
       </c>
       <c r="J2">
-        <v>-1.881818181818182</v>
+        <v>-3.316666666666667</v>
       </c>
       <c r="K2">
-        <v>-0.64</v>
+        <v>-1.07</v>
       </c>
       <c r="L2">
-        <v>-1.939393939393939</v>
+        <v>-3.566666666666667</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,31 +630,31 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.302</v>
+        <v>0.757</v>
       </c>
       <c r="V2">
-        <v>0.04301994301994302</v>
+        <v>0.03180672268907563</v>
       </c>
       <c r="W2">
-        <v>-2.119205298013245</v>
+        <v>-0.6184971098265897</v>
       </c>
       <c r="X2">
-        <v>0.09142414783749639</v>
+        <v>0.0551470373185501</v>
       </c>
       <c r="Y2">
-        <v>-2.210629445850742</v>
+        <v>-0.6736441471451398</v>
       </c>
       <c r="Z2">
-        <v>-1.161971830985916</v>
+        <v>0.2557544757033248</v>
       </c>
       <c r="AA2">
-        <v>2.186619718309859</v>
+        <v>-0.8482523444160273</v>
       </c>
       <c r="AB2">
-        <v>0.09142414783749639</v>
+        <v>0.0551470373185501</v>
       </c>
       <c r="AC2">
-        <v>2.095195570472363</v>
+        <v>-0.9033993817345773</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -669,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>-0.302</v>
+        <v>-0.757</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -678,22 +675,28 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-0.04495385531408157</v>
+        <v>-0.03285162522241028</v>
       </c>
       <c r="AK2">
-        <v>-0.211484593837535</v>
+        <v>-0.8291347207009858</v>
       </c>
       <c r="AL2">
-        <v>0.019</v>
+        <v>0.043</v>
       </c>
       <c r="AM2">
-        <v>0.019</v>
+        <v>0.043</v>
+      </c>
+      <c r="AN2">
+        <v>-0</v>
       </c>
       <c r="AO2">
-        <v>-32.68421052631579</v>
+        <v>-23.13953488372093</v>
+      </c>
+      <c r="AP2">
+        <v>0.9345679012345679</v>
       </c>
       <c r="AQ2">
-        <v>-32.68421052631579</v>
+        <v>-23.13953488372093</v>
       </c>
     </row>
     <row r="3">
@@ -712,26 +715,23 @@
           <t>Heathcare Information and Technology</t>
         </is>
       </c>
-      <c r="D3">
-        <v>0.37</v>
-      </c>
       <c r="G3">
-        <v>-2.521212121212121</v>
+        <v>-1.643333333333333</v>
       </c>
       <c r="H3">
-        <v>-2.760606060606061</v>
+        <v>-2.106666666666667</v>
       </c>
       <c r="I3">
-        <v>-1.881818181818182</v>
+        <v>-3.316666666666667</v>
       </c>
       <c r="J3">
-        <v>-1.881818181818182</v>
+        <v>-3.316666666666667</v>
       </c>
       <c r="K3">
-        <v>-0.64</v>
+        <v>-1.07</v>
       </c>
       <c r="L3">
-        <v>-1.939393939393939</v>
+        <v>-3.566666666666667</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -755,31 +755,31 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.302</v>
+        <v>0.757</v>
       </c>
       <c r="V3">
-        <v>0.04301994301994302</v>
+        <v>0.03180672268907563</v>
       </c>
       <c r="W3">
-        <v>-2.119205298013245</v>
+        <v>-0.6184971098265897</v>
       </c>
       <c r="X3">
-        <v>0.09142414783749639</v>
+        <v>0.0551470373185501</v>
       </c>
       <c r="Y3">
-        <v>-2.210629445850742</v>
+        <v>-0.6736441471451398</v>
       </c>
       <c r="Z3">
-        <v>-1.161971830985916</v>
+        <v>0.2557544757033248</v>
       </c>
       <c r="AA3">
-        <v>2.186619718309859</v>
+        <v>-0.8482523444160273</v>
       </c>
       <c r="AB3">
-        <v>0.09142414783749639</v>
+        <v>0.0551470373185501</v>
       </c>
       <c r="AC3">
-        <v>2.095195570472363</v>
+        <v>-0.9033993817345773</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-0.302</v>
+        <v>-0.757</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -800,22 +800,28 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.04495385531408157</v>
+        <v>-0.03285162522241028</v>
       </c>
       <c r="AK3">
-        <v>-0.211484593837535</v>
+        <v>-0.8291347207009858</v>
       </c>
       <c r="AL3">
-        <v>0.019</v>
+        <v>0.043</v>
       </c>
       <c r="AM3">
-        <v>0.019</v>
+        <v>0.043</v>
+      </c>
+      <c r="AN3">
+        <v>-0</v>
       </c>
       <c r="AO3">
-        <v>-32.68421052631579</v>
+        <v>-23.13953488372093</v>
+      </c>
+      <c r="AP3">
+        <v>0.9345679012345679</v>
       </c>
       <c r="AQ3">
-        <v>-32.68421052631579</v>
+        <v>-23.13953488372093</v>
       </c>
     </row>
   </sheetData>
